--- a/Prac2/Randomresults.xlsx
+++ b/Prac2/Randomresults.xlsx
@@ -13,7 +13,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Execution time (s)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Total Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Execution Time With Data Transfer Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Kernel (s)</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Execution Time of all Parallel Overhead (s)</t>
+  </si>
+  <si>
+    <t>Execution Time of Data Transfer Overhead (s)</t>
+  </si>
   <si>
     <t>n</t>
   </si>
@@ -182,31 +452,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
